--- a/biology/Médecine/Liste_de_syndromes/Liste_de_syndromes.xlsx
+++ b/biology/Médecine/Liste_de_syndromes/Liste_de_syndromes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,13 +520,59 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Syndrome chromosomiques
-Syndromes dus à une anomalie des chromosomes sexuels
-Syndrome de Klinefelter - trisomie 23
+          <t>Syndrome chromosomiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Syndromes dus à une anomalie des chromosomes sexuels</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Syndrome de Klinefelter - trisomie 23
 Syndrome de Turner - monosomie 23
-Syndrome d'insensibilité complète aux androgènes(SICA) - mutation du chromosome 23 (gène AR muté)
-Autres syndromes chromosomiques
-Syndrome de Swyer
+Syndrome d'insensibilité complète aux androgènes(SICA) - mutation du chromosome 23 (gène AR muté)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Syndrome chromosomiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Autres syndromes chromosomiques</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome de Swyer
 Syndrome de Down - trisomie 21
 Syndrome d’Angelman - anomalie au niveau de la quinzième paire de chromosomes, causant un sévère trouble du développement neurologique.
 Syndrome de Prader Willi
@@ -522,9 +580,43 @@
 Syndrome de Patau - trisomie 13
 Syndrome de Lejeune, aussi appelé maladie du cri du chat - touche la cinquième paire de chromosomes.
 Il existe beaucoup de syndromes et de pathologies liés à la deuxième paire de chromosome consultables sur cette page.
-Syndrome de Hutchinson-Gilford, plus communément appelé progéria ou maladie des "enfants-vieillards" - anomalie au niveau de la première paire de chromosomes.
-Syndromes neurologiques
-Syndrome d'Asperger
+Syndrome de Hutchinson-Gilford, plus communément appelé progéria ou maladie des "enfants-vieillards" - anomalie au niveau de la première paire de chromosomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Syndromes neurologiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Syndrome d'Asperger
 Syndrome de Balint
 Syndrome cérébelleux
 Syndrome de Claude Bernard-Horner
@@ -540,35 +632,239 @@
 Syndrome de Klüver-Bucy
 Syndrome de Sanfilippo
 Syndrome de Wallenberg
-Syndrome de Williams
-Syndromes pneumologiques
-Syndrome alvéolaire
+Syndrome de Williams</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Syndromes pneumologiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syndrome alvéolaire
 Syndrome de détresse respiratoire aiguë
 Syndrome hépato-pulmonaire
 Syndrome d'hyperventilation
 Syndrome de Löfgren
 Syndrome obstructif
-Syndrome restrictif
-Syndromes néphrologiques
-Syndrome néphrotique
-Syndromes hématologiques
-Syndrome d'hyperviscosité
+Syndrome restrictif</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Syndromes néphrologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Syndrome néphrotique</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Syndromes hématologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Syndrome d'hyperviscosité
 Syndrome anémique
 Syndrome hémorragique
-Syndrome tumoral
-Syndromes infectieux
-Syndrome grippal
-Syndrome d'immunodéficience acquise
-Syndromes psychiatriques
-Syndrome délirant
+Syndrome tumoral</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Syndromes infectieux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Syndrome grippal
+Syndrome d'immunodéficience acquise</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Syndromes psychiatriques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Syndrome délirant
 Syndrome dissociatif
 Syndrome de Lima
 Syndrome de Peter Pan
 Syndrome du voyageur
 Syndrome de Münchausen
-Syndrome de Stockholm
-Autres syndromes non-classés
-Syndrome de Cotard - aussi appelé syndrome du mort-vivan
+Syndrome de Stockholm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_syndromes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classement médical</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Autres syndromes non-classés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Syndrome de Cotard - aussi appelé syndrome du mort-vivan
 Syndrome de Cushing
 Syndrome du loup-garou - hypertrichose
 Syndrome de la main étrangère
